--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_06_beg.xlsx
@@ -2816,7 +2816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="피케일"]이게 진짜!
+    <t xml:space="preserve">[name="피케일"]뭐라고?!
 </t>
   </si>
   <si>
@@ -3064,7 +3064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="슈바르츠"]그게 왜 필요하지?
+    <t xml:space="preserve">[name="슈바르츠"]그게 왜 필요하죠?
 </t>
   </si>
   <si>
@@ -3212,7 +3212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="레인저"]흠, 큰일이네.
+    <t xml:space="preserve">[name="레인저"]큰일이군그래.
 </t>
   </si>
   <si>
@@ -3380,7 +3380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="슈바르츠"]그건 정제된 오리지늄 주괴?
+    <t xml:space="preserve">[name="슈바르츠"]그건 정제된 오리지늄각뿔?
 </t>
   </si>
   <si>
